--- a/datasets/quadratic.xlsx
+++ b/datasets/quadratic.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.845109429158976</v>
+        <v>3.219706175747628</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>3.569478135192544</v>
+        <v>2.700376295693827</v>
       </c>
       <c r="B3">
         <v>0.101010101010101</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2.943259058521966</v>
+        <v>2.225197794754311</v>
       </c>
       <c r="B4">
         <v>0.202020202020202</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2.70627566371152</v>
+        <v>1.79745404532855</v>
       </c>
       <c r="B5">
         <v>0.303030303030303</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2.227949977692576</v>
+        <v>1.412374653486217</v>
       </c>
       <c r="B6">
         <v>0.404040404040404</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.752981969942158</v>
+        <v>1.073631005418439</v>
       </c>
       <c r="B7">
         <v>0.5050505050505051</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.135367521167534</v>
+        <v>0.7786176858819784</v>
       </c>
       <c r="B8">
         <v>0.6060606060606061</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.091447029561382</v>
+        <v>0.5320193090032052</v>
       </c>
       <c r="B9">
         <v>0.7070707070707071</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.4985601172947424</v>
+        <v>0.3295135306277908</v>
       </c>
       <c r="B10">
         <v>0.8080808080808081</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.2443666788229648</v>
+        <v>0.1716598904805359</v>
       </c>
       <c r="B11">
         <v>0.9090909090909091</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>-0.05736762299113787</v>
+        <v>0.05966737878847223</v>
       </c>
       <c r="B12">
         <v>1.01010101010101</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>-0.2831672752028661</v>
+        <v>-0.006067118829339596</v>
       </c>
       <c r="B13">
         <v>1.111111111111111</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>-0.682575864247973</v>
+        <v>-0.0291135208962642</v>
       </c>
       <c r="B14">
         <v>1.212121212121212</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>-0.8252077203855154</v>
+        <v>-0.003737483376161106</v>
       </c>
       <c r="B15">
         <v>1.313131313131313</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>-0.9652135401131519</v>
+        <v>0.06632684875767067</v>
       </c>
       <c r="B16">
         <v>1.414141414141414</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>-1.171990509683379</v>
+        <v>0.1796626120231249</v>
       </c>
       <c r="B17">
         <v>1.515151515151515</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>-1.654494011112281</v>
+        <v>0.3400625228430507</v>
       </c>
       <c r="B18">
         <v>1.616161616161616</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>-1.621956134711627</v>
+        <v>0.5441264029602549</v>
       </c>
       <c r="B19">
         <v>1.717171717171717</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>-1.771914981178665</v>
+        <v>0.7962338913112076</v>
       </c>
       <c r="B20">
         <v>1.818181818181818</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>-2.081261677579629</v>
+        <v>1.091804128368968</v>
       </c>
       <c r="B21">
         <v>1.919191919191919</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>-2.112295609535354</v>
+        <v>1.430419267476538</v>
       </c>
       <c r="B22">
         <v>2.02020202020202</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>-2.258808471236368</v>
+        <v>1.818848566203085</v>
       </c>
       <c r="B23">
         <v>2.121212121212121</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>-2.187296033859254</v>
+        <v>2.249567946797578</v>
       </c>
       <c r="B24">
         <v>2.222222222222222</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>-2.265155674862688</v>
+        <v>2.727092271778383</v>
       </c>
       <c r="B25">
         <v>2.323232323232323</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>-2.208710395317085</v>
+        <v>3.248825759880158</v>
       </c>
       <c r="B26">
         <v>2.424242424242424</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>-2.226257375559413</v>
+        <v>3.816473481587067</v>
       </c>
       <c r="B27">
         <v>2.525252525252525</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>-2.106230874124653</v>
+        <v>4.42833333496757</v>
       </c>
       <c r="B28">
         <v>2.626262626262626</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>-2.18101211523838</v>
+        <v>5.085792038051454</v>
       </c>
       <c r="B29">
         <v>2.727272727272727</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>-2.125122038149352</v>
+        <v>5.790215634249964</v>
       </c>
       <c r="B30">
         <v>2.828282828282828</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>-2.141827069126289</v>
+        <v>6.537999045137668</v>
       </c>
       <c r="B31">
         <v>2.929292929292929</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>-2.062429648821853</v>
+        <v>7.332920295167548</v>
       </c>
       <c r="B32">
         <v>3.03030303030303</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>-1.928958657614611</v>
+        <v>8.172223197999942</v>
       </c>
       <c r="B33">
         <v>3.131313131313131</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>-1.699099128286472</v>
+        <v>9.056835190769727</v>
       </c>
       <c r="B34">
         <v>3.232323232323232</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>-1.465594185428928</v>
+        <v>9.985834106709703</v>
       </c>
       <c r="B35">
         <v>3.333333333333333</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>-1.26649434567606</v>
+        <v>10.96091664230036</v>
       </c>
       <c r="B36">
         <v>3.434343434343434</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>-1.136433153241682</v>
+        <v>11.98198211900225</v>
       </c>
       <c r="B37">
         <v>3.535353535353535</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>-0.9128612896897411</v>
+        <v>13.0485233761499</v>
       </c>
       <c r="B38">
         <v>3.636363636363636</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>-0.7064585535296944</v>
+        <v>14.15940626314065</v>
       </c>
       <c r="B39">
         <v>3.737373737373737</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>-0.4261021955393769</v>
+        <v>15.31472717667958</v>
       </c>
       <c r="B40">
         <v>3.838383838383838</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>-0.135636409369265</v>
+        <v>16.51798146403575</v>
       </c>
       <c r="B41">
         <v>3.939393939393939</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.2854323420668796</v>
+        <v>17.7637925715202</v>
       </c>
       <c r="B42">
         <v>4.040404040404041</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.4640630251118213</v>
+        <v>19.05884705361218</v>
       </c>
       <c r="B43">
         <v>4.141414141414141</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.8692136069141108</v>
+        <v>20.3945044561875</v>
       </c>
       <c r="B44">
         <v>4.242424242424242</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>1.098705685973772</v>
+        <v>21.77553694793183</v>
       </c>
       <c r="B45">
         <v>4.343434343434343</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>1.537648542927081</v>
+        <v>23.20474000457469</v>
       </c>
       <c r="B46">
         <v>4.444444444444445</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>1.93296193759768</v>
+        <v>24.67730484281448</v>
       </c>
       <c r="B47">
         <v>4.545454545454545</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>2.413762953537125</v>
+        <v>26.19737702421959</v>
       </c>
       <c r="B48">
         <v>4.646464646464646</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>2.753617001680396</v>
+        <v>27.76056594001353</v>
       </c>
       <c r="B49">
         <v>4.747474747474747</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>3.229822826185812</v>
+        <v>29.36970712782713</v>
       </c>
       <c r="B50">
         <v>4.848484848484849</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>3.829589561223525</v>
+        <v>31.0273469098853</v>
       </c>
       <c r="B51">
         <v>4.94949494949495</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>4.234995707328782</v>
+        <v>32.72411871816266</v>
       </c>
       <c r="B52">
         <v>5.05050505050505</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>4.875600257451156</v>
+        <v>34.47191849010084</v>
       </c>
       <c r="B53">
         <v>5.151515151515151</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>5.240067757970992</v>
+        <v>36.25978167363415</v>
       </c>
       <c r="B54">
         <v>5.252525252525253</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>5.888412944509827</v>
+        <v>38.0960774515336</v>
       </c>
       <c r="B55">
         <v>5.353535353535354</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>6.672138060903484</v>
+        <v>39.9783243882559</v>
       </c>
       <c r="B56">
         <v>5.454545454545454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>7.10885512563017</v>
+        <v>41.90661119946478</v>
       </c>
       <c r="B57">
         <v>5.555555555555555</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>7.684561864487527</v>
+        <v>43.87695240712237</v>
       </c>
       <c r="B58">
         <v>5.656565656565657</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>8.320402849777217</v>
+        <v>45.89467310722644</v>
       </c>
       <c r="B59">
         <v>5.757575757575758</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>8.86937223781551</v>
+        <v>47.95455089752981</v>
       </c>
       <c r="B60">
         <v>5.858585858585858</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>9.67272702853808</v>
+        <v>50.06424493347262</v>
       </c>
       <c r="B61">
         <v>5.959595959595959</v>
@@ -873,7 +873,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>10.38535194747829</v>
+        <v>52.21760517324593</v>
       </c>
       <c r="B62">
         <v>6.060606060606061</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>11.10335145139113</v>
+        <v>54.41487834699468</v>
       </c>
       <c r="B63">
         <v>6.161616161616162</v>
@@ -889,7 +889,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>11.93836541574086</v>
+        <v>56.66035204722863</v>
       </c>
       <c r="B64">
         <v>6.262626262626262</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>12.5449653002389</v>
+        <v>58.94784136816728</v>
       </c>
       <c r="B65">
         <v>6.363636363636363</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>13.46905592622661</v>
+        <v>61.2826732592094</v>
       </c>
       <c r="B66">
         <v>6.464646464646465</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>14.32560370967361</v>
+        <v>63.6618240328749</v>
       </c>
       <c r="B67">
         <v>6.565656565656566</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>15.14088489868892</v>
+        <v>66.08755028393047</v>
       </c>
       <c r="B68">
         <v>6.666666666666667</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>15.87259587611894</v>
+        <v>68.55697085970382</v>
       </c>
       <c r="B69">
         <v>6.767676767676767</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>16.79386786598308</v>
+        <v>71.07280890112769</v>
       </c>
       <c r="B70">
         <v>6.868686868686869</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>17.71839156565624</v>
+        <v>73.6330606209449</v>
       </c>
       <c r="B71">
         <v>6.96969696969697</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>18.72820648254579</v>
+        <v>76.24048909651322</v>
       </c>
       <c r="B72">
         <v>7.070707070707071</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>19.60966042172639</v>
+        <v>78.89007310539429</v>
       </c>
       <c r="B73">
         <v>7.171717171717171</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>20.5065209754845</v>
+        <v>81.58810245576932</v>
       </c>
       <c r="B74">
         <v>7.272727272727272</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>21.64148925270009</v>
+        <v>84.32830225858284</v>
       </c>
       <c r="B75">
         <v>7.373737373737374</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>22.55346732775491</v>
+        <v>87.11676359543526</v>
       </c>
       <c r="B76">
         <v>7.474747474747475</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>23.46609521359986</v>
+        <v>89.94853471207314</v>
       </c>
       <c r="B77">
         <v>7.575757575757575</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>24.64800997529174</v>
+        <v>92.82519121237088</v>
       </c>
       <c r="B78">
         <v>7.676767676767676</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>25.66981856484099</v>
+        <v>95.74891957016341</v>
       </c>
       <c r="B79">
         <v>7.777777777777778</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>26.88459006506751</v>
+        <v>98.71833689849635</v>
       </c>
       <c r="B80">
         <v>7.878787878787879</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>27.76487029844795</v>
+        <v>101.7316887288901</v>
       </c>
       <c r="B81">
         <v>7.979797979797979</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>28.93107970106835</v>
+        <v>104.7904753905455</v>
       </c>
       <c r="B82">
         <v>8.080808080808081</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>30.13993093264394</v>
+        <v>107.8954254948007</v>
       </c>
       <c r="B83">
         <v>8.181818181818182</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>31.25088941039688</v>
+        <v>111.0452773214064</v>
       </c>
       <c r="B84">
         <v>8.282828282828282</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>32.6011110485966</v>
+        <v>114.2406200338595</v>
       </c>
       <c r="B85">
         <v>8.383838383838384</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>33.5573258147547</v>
+        <v>117.4797871316415</v>
       </c>
       <c r="B86">
         <v>8.484848484848484</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>34.89489415848725</v>
+        <v>120.7642220827281</v>
       </c>
       <c r="B87">
         <v>8.585858585858587</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>35.98529781395099</v>
+        <v>124.0966325167546</v>
       </c>
       <c r="B88">
         <v>8.686868686868687</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>37.1479302924595</v>
+        <v>127.4733643652253</v>
       </c>
       <c r="B89">
         <v>8.787878787878787</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>38.54410330350129</v>
+        <v>130.8942962526324</v>
       </c>
       <c r="B90">
         <v>8.888888888888889</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>39.79414321988465</v>
+        <v>134.3609775886858</v>
       </c>
       <c r="B91">
         <v>8.98989898989899</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>41.33667779923097</v>
+        <v>137.872949117355</v>
       </c>
       <c r="B92">
         <v>9.09090909090909</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>42.70324017814752</v>
+        <v>141.4303987354384</v>
       </c>
       <c r="B93">
         <v>9.191919191919192</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>43.88277832444802</v>
+        <v>145.0323648034416</v>
       </c>
       <c r="B94">
         <v>9.292929292929292</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>45.0874195219895</v>
+        <v>148.6818598345328</v>
       </c>
       <c r="B95">
         <v>9.393939393939394</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>46.58992599840598</v>
+        <v>152.3744492125125</v>
       </c>
       <c r="B96">
         <v>9.494949494949495</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>48.0579041217819</v>
+        <v>156.1123630918457</v>
       </c>
       <c r="B97">
         <v>9.595959595959595</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>49.79364542125437</v>
+        <v>159.8949185898636</v>
       </c>
       <c r="B98">
         <v>9.696969696969697</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>50.99685146754526</v>
+        <v>163.7260042450968</v>
       </c>
       <c r="B99">
         <v>9.797979797979798</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>52.32396657850754</v>
+        <v>167.600363471084</v>
       </c>
       <c r="B100">
         <v>9.8989898989899</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>54.0203100576822</v>
+        <v>171.521235026842</v>
       </c>
       <c r="B101">
         <v>10</v>
